--- a/files/test_cases.xlsx
+++ b/files/test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/437e35b1e10163e8/Рабочий стол/Testing/28 финальный проект/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Final_project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_F5705EB46B12AEBE913F2793904E9AF601481E9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B28D09D-0E7C-4871-A48B-FEED4524C8C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72608471-72FA-4F10-A1EF-8563F8CF3C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="220">
   <si>
     <t xml:space="preserve">Тест-кейсы автоматизированного тестирования сайта: 
 https://www.labirint.ru/ </t>
@@ -82,13 +82,6 @@
 https://www.labirint.ru/</t>
   </si>
   <si>
-    <t>1. В строке поиска, ввести: "Пушкин" 
-2. Нажать на иконку поиска</t>
-  </si>
-  <si>
-    <t>На странице появились соответствующие товары</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -98,13 +91,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Проверка поиска товаров при вводе некореектных данных (символов)</t>
-  </si>
-  <si>
-    <t>1. В строке поиска, ввести: "%!*" 
-2. Нажать на иконку поиска</t>
-  </si>
-  <si>
     <t>Появляется сообщение "Мы ничего не нашли по вашему запросу! Что делать?"</t>
   </si>
   <si>
@@ -112,10 +98,6 @@
   </si>
   <si>
     <t>Проверка поиска товаров при вводе запроса с неправильной раскладкой клавиатуры</t>
-  </si>
-  <si>
-    <t>1. В строке поиска, ввести: "Ljcnjtdcrbq" 
-2. Нажать на иконку поиска</t>
   </si>
   <si>
     <t>EXP-004</t>
@@ -125,10 +107,6 @@
 при вводе запроса с орфографическими ошибками</t>
   </si>
   <si>
-    <t>1. В строке поиска, ввести: "Джек Лундон" 
-2. Нажать на иконку поиска</t>
-  </si>
-  <si>
     <t>EXP-005</t>
   </si>
   <si>
@@ -136,13 +114,6 @@
  в результатах поиска </t>
   </si>
   <si>
-    <t>1. В строке поиска, ввести: "Пушкин" 
-2. Нажать на иконку поиска
-3.  Нажимаем на фильтр "ТИП ТОВАРА"
-4.  Убираем галочки с "Бумажные книги" и "Другие товары"
-5. Нажимаем кнопку "Показать"</t>
-  </si>
-  <si>
     <t>На странице появились только товары, соответствующие фильтру "Электронные книги"</t>
   </si>
   <si>
@@ -153,13 +124,6 @@
  в результатах поиска</t>
   </si>
   <si>
-    <t>1. В строке поиска, ввести: "Пушкин" 
-2. Нажать на иконку поиска
-3.  Нажимаем на фильтр "ТИП ТОВАРА"
-4.  Убираем галочки с "Электронные товары" и "Другие товары"
-5. Нажимаем кнопку "Показать"</t>
-  </si>
-  <si>
     <t>На странице появились только товары, соответствующие фильтру "Бумажные книги"</t>
   </si>
   <si>
@@ -170,13 +134,6 @@
  в результатах поиска</t>
   </si>
   <si>
-    <t>1. В строке поиска, ввести: "Джордж Мартин" 
-2. Нажать на иконку поиска
-3.  Нажимаем на фильтр "ЦЕНА"
-4.  Кликаем на фильтр "Со скидкой"
-5. Нажимаем кнопку "Показать"</t>
-  </si>
-  <si>
     <t>На странице отображаются только товары со скидкой</t>
   </si>
   <si>
@@ -184,13 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Проверка кнопок исключения из результатов поиска разных категорий товаров
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. В строке поиска, ввести: "Пушкин" 
-2. Нажать на иконку поиска
-3.  Нажимаем на кнопку "Бумажные книги Х"
-4.  Нажимаем на кнопку "Прочие товары Х"
 </t>
   </si>
   <si>
@@ -217,25 +167,12 @@
     <t>Добавление найденного через поиск товара в корзину</t>
   </si>
   <si>
-    <t>1. В строке поиска, ввести: "белый клык" 
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы</t>
-  </si>
-  <si>
     <t>EXP-011</t>
   </si>
   <si>
     <t>Очищение корзины</t>
   </si>
   <si>
-    <t>"1. В строке поиска, ввести: ""сказки пушкина"" 
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку ""В КОРЗИНУ"" под товаром
-4. Нажимаем на кнопку ""Корзина"" в хэдере страницы"
-5. Нажимаем на кнопку "Очистить корзину"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Происходит очистка корзины </t>
   </si>
   <si>
@@ -245,30 +182,12 @@
     <t>Восстановление удаленных товаров из корзины (после очищения)</t>
   </si>
   <si>
-    <t>"1. В строке поиска, ввести: "сказки пушкина"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "Очистить корзину"
-6. Нажимаем на кнопку "Восстановить корзину"</t>
-  </si>
-  <si>
-    <t>Происходит восстановление всех удаленных после очищения товаров</t>
-  </si>
-  <si>
     <t>EXP-013</t>
   </si>
   <si>
     <t>Открытие страницы "оформление заказа"</t>
   </si>
   <si>
-    <t>"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"</t>
-  </si>
-  <si>
     <t>Открывается страница "Оформление заказа"</t>
   </si>
   <si>
@@ -276,14 +195,6 @@
   </si>
   <si>
     <t>"Открытие страницы "выбор места и способа доставки" при оформлении заказа</t>
-  </si>
-  <si>
-    <t>"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Нажимаем на кнопку "Выбор места и способа доставки"</t>
   </si>
   <si>
     <t>Открывается страница выбора места и способа доставки</t>
@@ -296,18 +207,6 @@
 при оформлении заказа</t>
   </si>
   <si>
-    <t>"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Нажимаем на кнопку "Выбор места и способа доставки"
-7. Ввод в поле адреса "Дворцовая площадь 10 Санкт-Петербург"
-8. Выбираем способ доставки "Самовывоз"
-9. Выбираем пункт выдачи
-10. нажимаем на кнопку "Заберу отсюда"</t>
-  </si>
-  <si>
     <t>На странице "Оформление заказа" выбрано место выдачи заказа</t>
   </si>
   <si>
@@ -318,87 +217,25 @@
 при оформлении заказа</t>
   </si>
   <si>
-    <t>"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Нажимаем на кнопку "Выбор места и способа доставки"
-7. Ввод в поле адреса "Дворцовая площадь 10 Санкт-Петербург"
-8. Выбираем способ доставки "Курьер"
-9. Выбираем службу доставки
-10. нажимаем на кнопку "Выбрать эту доставку"</t>
-  </si>
-  <si>
     <t>На странице "Оформление заказа" указана курьерская служба, которая доставит заказ</t>
   </si>
   <si>
     <t>EXP-017</t>
   </si>
   <si>
-    <t>Проверка появления сообщения об ошибке при вводе символов в поле адреса доставки при оформления заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Нажимаем на кнопку "Выбор места и способа доставки"
-7. Ввод в поле адреса "@#$%^" 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">На странице выбора места и способа доставки появляется сообщение об ошибке </t>
   </si>
   <si>
     <t>EXP-018</t>
   </si>
   <si>
-    <t>Проверка появления сообщения об ошибке при вводе цифр в поле адреса доставки при оформления заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Нажимаем на кнопку "Выбор места и способа доставки"
-7. Ввод в поле адреса "111111111111111111111111111111" 
-</t>
-  </si>
-  <si>
     <t>EXP-019</t>
   </si>
   <si>
-    <t>Проверка появления сообщения об ошибке при вводе адреса
-с неправильной раскладкой клавиатуры в поле адреса доставки при оформления заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Нажимаем на кнопку "Выбор места и способа доставки"
-7. Ввод в поле адреса "ghjcgtrn ktybyf 37 gtnhjpfdjlcr" 
-</t>
-  </si>
-  <si>
     <t>EXP-020</t>
   </si>
   <si>
     <t>появления сообщения об ошибке при вводе символов в поле "Имя" на странице Оформление заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя" символы
-7. Ввод в поле "Фамилия", "Телефон" и "email" корректных значений
-</t>
   </si>
   <si>
     <t xml:space="preserve">На странице "оформление заказа" появляется сообщение об ошибке </t>
@@ -411,16 +248,6 @@
 при оставлении пустым поле "Имя" на странице Оформление заказа</t>
   </si>
   <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Фамилия", "Телефон" и "email" корректных значений
-7. Поле "Имя" оставляем пустым
-</t>
-  </si>
-  <si>
     <t>EXP-022</t>
   </si>
   <si>
@@ -428,16 +255,6 @@
 при оставлении пустым поле "Фамилия" на странице Оформление заказа</t>
   </si>
   <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя", "Телефон" и "email" корректных значений
-7. Поле "Фамилия" оставляем пустым
-</t>
-  </si>
-  <si>
     <t>EXP-023</t>
   </si>
   <si>
@@ -445,50 +262,15 @@
 при оставлении пустым поле "Мобильный телефон" на странице Оформление заказа</t>
   </si>
   <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя", "Фамилия" и "email" корректных значений
-7. Поле "Мобильный телефон" оставляем пустым
-</t>
-  </si>
-  <si>
     <t>EXP-024</t>
   </si>
   <si>
-    <t>появления сообщения об ошибке 
-привводе неверного номера телефона в поле "Мобильный телефон" на странице Оформление заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя", "Фамилия" и "email" корректных значений
-7. В поле "Мобильный телефон" вводим "1111111111111111111111111111111111"
-</t>
-  </si>
-  <si>
     <t>EXP-025</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка открытия страницы  "Подтверждение телефона" при оформлении заказа </t>
   </si>
   <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя", "Фамилия" и "email" корректных значений
-7. В поле "Мобильный телефон" вводим "9114010103"
-8. Нажимаем на кнопку "Проверить" рядом с полем ввода телефона
-</t>
-  </si>
-  <si>
     <t>открылось окно "Подтверждение телефона"</t>
   </si>
   <si>
@@ -498,30 +280,10 @@
     <t>Проверка появления сообщения об ошибке при вводе электронной почты без символа @ в поле "Электронная почта" на странице Оформление заказа</t>
   </si>
   <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя", "Фамилия" и "Мобильный телефон" корректных значений
-7. В поле "email" вводим "oleg.ivanovgmail.com"
-</t>
-  </si>
-  <si>
     <t>EXP-027</t>
   </si>
   <si>
     <t>Проверка появления сообщения об ошибке при  незаполнении поля "email" на странице Оформление заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя", "Фамилия" и "Мобильный телефон" корректных значений
-7. поле "email" оставляем пустым
-</t>
   </si>
   <si>
     <t>EXP-028</t>
@@ -529,16 +291,6 @@
   <si>
     <t>Проверка появления сообщения об ошибке при вводе в поле "Электронная почта"
 значения на русском языке на странице Оформление заказа.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1. В строке поиска, ввести: "властелин колец"
-2. Нажать на иконку поиска
-3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
-4. Нажимаем на кнопку "Корзина" в хэдере страницы"
-5. Нажимаем на кнопку "перейти к оформлению"
-6. Ввод в поле "Имя", "Фамилия" и "Мобильный телефон" корректных значений
-7. В поле "email" вводим "почта@мэйл.ру"
-</t>
   </si>
   <si>
     <t>EXP-029</t>
@@ -584,9 +336,6 @@
     <t>EXP-032</t>
   </si>
   <si>
-    <t>Проверка открытия раздела "школа"</t>
-  </si>
-  <si>
     <t>1. Нажать на кнопку "Школа" в горизонтальном меню хэдера</t>
   </si>
   <si>
@@ -618,9 +367,6 @@
   </si>
   <si>
     <t>EXP-035</t>
-  </si>
-  <si>
-    <t>Проверка корректного открытия страницы "Товары для дома" в хэдере сайта через кнопку "Еще"</t>
   </si>
   <si>
     <t>1. Нажать на кнопку "Еще" в горизонтальном меню хэдера
@@ -648,16 +394,10 @@
     <t>Проверка открытия раздела "Отложенные товары"</t>
   </si>
   <si>
-    <t>1. Нажать на кнопку "отложено" в хэдере</t>
-  </si>
-  <si>
     <t>открылась страница https://www.labirint.ru/cabinet/putorder/</t>
   </si>
   <si>
     <t>EXP-038</t>
-  </si>
-  <si>
-    <t>Проверка добавления книги в "отложенные товары"</t>
   </si>
   <si>
     <t>1. на главной странице кликаем на товар, который хотим отложить
@@ -669,9 +409,6 @@
   </si>
   <si>
     <t>EXP-039</t>
-  </si>
-  <si>
-    <t>Проверка очищения раздела "отложенные товары"</t>
   </si>
   <si>
     <t>1. на главной странице кликаем на товар, который хотим отложить
@@ -736,9 +473,6 @@
     <t>EXP-043</t>
   </si>
   <si>
-    <t>Проверка работы поиска "Поиск по помощи" на странице "Доставка и оплата"</t>
-  </si>
-  <si>
     <t>1. Нажать на кнопку "Доставка и оплата" в сером горизонтальном меню хэдера
 2. в поисковую строку "Поиск по Помощи" ввести "юридические лица"</t>
   </si>
@@ -807,20 +541,6 @@
     <t>1. нажать на кнопку "Тесты" в футере страницы</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Открывается страница "Литературные тесты" </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://www.labirint.ru/littest/</t>
-    </r>
-  </si>
-  <si>
     <t>EXP-049</t>
   </si>
   <si>
@@ -834,9 +554,6 @@
   </si>
   <si>
     <t>EXP-050</t>
-  </si>
-  <si>
-    <t>Проверка перехода на сайт издательского дома "лабиринт" из футера сайта</t>
   </si>
   <si>
     <t>1. нажать на кнопку "© Холдинг «Лабиринт»" в футере страницы</t>
@@ -888,6 +605,284 @@
   </si>
   <si>
     <t>Появляется сообщение: Поиск в разделе Помощь не дал результатов.</t>
+  </si>
+  <si>
+    <t>Проверка поиска товаров при вводе некоректных данных (символов)</t>
+  </si>
+  <si>
+    <t>Проверка появления сообщения об ошибке при вводе символов в поле адреса доставки при оформлении заказа</t>
+  </si>
+  <si>
+    <t>Проверка появления сообщения об ошибке при вводе цифр в поле адреса доставки при оформлении заказа</t>
+  </si>
+  <si>
+    <t>Проверка появления сообщения об ошибке при вводе адреса
+с неправильной раскладкой клавиатуры в поле адреса доставки при оформлении заказа</t>
+  </si>
+  <si>
+    <t>появления сообщения об ошибке 
+при вводе неверного номера телефона в поле "Мобильный телефон" на странице Оформление заказа</t>
+  </si>
+  <si>
+    <t>Проверка открытия раздела "Школа"</t>
+  </si>
+  <si>
+    <t>Проверка  открытия страницы "Товары для дома" в хэдере сайта через кнопку "Еще"</t>
+  </si>
+  <si>
+    <t>Проверка добавления книги в "Отложенные товары"</t>
+  </si>
+  <si>
+    <t>Проверка очищения раздела "Отложенные товары"</t>
+  </si>
+  <si>
+    <t>Проверка работы поиска "Поиск по Помощи" на странице "Доставка и оплата"</t>
+  </si>
+  <si>
+    <t>Проверка перехода на сайт издательского дома "Лабиринт" из футера сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается страница "Литерастурные тесты" https://www.labirint.ru/littest </t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "Пушкин" 
+2. Нажать на иконку поиска</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "%!*" 
+2. Нажать на иконку поиска</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "Ljcnjtdcrbq" 
+2. Нажать на иконку поиска</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "Джек Лундон" 
+2. Нажать на иконку поиска</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "Пушкин" 
+2. Нажать на иконку поиска
+3.  Нажимаем на фильтр "ТИП ТОВАРА"
+4.  Убираем галочки с "Бумажные книги" и "Другие товары"
+5. Нажимаем кнопку "Показать"</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "Пушкин" 
+2. Нажать на иконку поиска
+3.  Нажимаем на фильтр "ТИП ТОВАРА"
+4.  Убираем галочки с "Электронные товары" и "Другие товары"
+5. Нажимаем кнопку "Показать"</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "Джордж Мартин" 
+2. Нажать на иконку поиска
+3.  Нажимаем на фильтр "ЦЕНА"
+4.  Кликаем на фильтр "Со скидкой"
+5. Нажимаем кнопку "Показать"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "Пушкин" 
+2. Нажать на иконку поиска
+3.  Нажимаем на кнопку "Бумажные книги Х"
+4.  Нажимаем на кнопку "Прочие товары Х"
+</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "белый клык" 
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: ""сказки пушкина"" 
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку ""В КОРЗИНУ"" под товаром
+4. Нажимаем на кнопку ""Корзина"" в хэдере страницы"
+5. Нажимаем на кнопку "Очистить корзину"</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "сказки пушкина"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "Очистить корзину"
+6. Нажимаем на кнопку "Восстановить корзину"</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Нажимаем на кнопку "Выбор места и способа доставки"</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Нажимаем на кнопку "Выбор места и способа доставки"
+7. Ввод в поле адреса "Дворцовая площадь 10 Санкт-Петербург"
+8. Выбираем способ доставки "Самовывоз"
+9. Выбираем пункт выдачи
+10. нажимаем на кнопку "Заберу отсюда"</t>
+  </si>
+  <si>
+    <t>1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Нажимаем на кнопку "Выбор места и способа доставки"
+7. Ввод в поле адреса "Дворцовая площадь 10 Санкт-Петербург"
+8. Выбираем способ доставки "Курьер"
+9. Выбираем службу доставки
+10. нажимаем на кнопку "Выбрать эту доставку"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Нажимаем на кнопку "Выбор места и способа доставки"
+7. Ввод в поле адреса "@#$%^" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Нажимаем на кнопку "Выбор места и способа доставки"
+7. Ввод в поле адреса "111111111111111111111111111111" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Нажимаем на кнопку "Выбор места и способа доставки"
+7. Ввод в поле адреса "ghjcgtrn ktybyf 37 gtnhjpfdjlcr" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска, ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. в поле "Имя" вводим символы
+7. в поле "Фамилия", "Телефон" и "email" вводим корректные значения
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Фамилия", "Телефон" и "email" корректные значения
+7. Поле "Имя" оставляем пустым
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Имя", "Телефон" и "email" корректные значения
+7. Поле "Фамилия" оставляем пустым
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Имя", "Фамилия" и "email" корректные значения
+7. Поле "Мобильный телефон" оставляем пустым
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Имя", "Фамилия" и "email" корректные значения
+7. В поле "Мобильный телефон" вводим "1111111111111111111111111111111111"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Имя", "Фамилия" и "email" корректные значения
+7. В поле "Мобильный телефон" вводим "9114010103"
+8. Нажимаем на кнопку "Проверить" рядом с полем ввода телефона
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Имя", "Фамилия" и "Мобильный телефон" корректные значения
+7. В поле "email" вводим "oleg.ivanovgmail.com"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Имя", "Фамилия" и "Мобильный телефон" корректные значения
+7. поле "email" оставляем пустым
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В строке поиска ввести: "властелин колец"
+2. Нажать на иконку поиска
+3.  нажимаем на кнопку "В КОРЗИНУ" под товаром
+4. Нажимаем на кнопку "Корзина" в хэдере страницы"
+5. Нажимаем на кнопку "перейти к оформлению"
+6. Вводим в поле "Имя", "Фамилия" и "Мобильный телефон" корректные значения
+7. В поле "email" вводим "почта@мэйл.ру"
+</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Отложено" в хэдере</t>
+  </si>
+  <si>
+    <t>На странице появились товары, содержащие в названии "Пушкин"</t>
+  </si>
+  <si>
+    <t>На странице появились товары, содержащие в названии "Достоевский"</t>
+  </si>
+  <si>
+    <t>На странице появились товары, содержащие в названии "Джек Лондон"</t>
+  </si>
+  <si>
+    <t>В корзине  восстанавливаются все удаленные после очищения товары</t>
   </si>
 </sst>
 </file>
@@ -1218,15 +1213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1236,16 +1222,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,6 +1242,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,7 +1473,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1503,69 +1498,69 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="28"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>44779</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="28"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="28"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="31"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1583,1163 +1578,1163 @@
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -7472,11 +7467,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F54" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F56" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7504,60 +7498,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="A1" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>213</v>
+      <c r="G2" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>216</v>
+        <v>173</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
